--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1391.624867430988</v>
+        <v>12191.62486743099</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1385.287080895593</v>
+        <v>12185.28708089559</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1376.249822662785</v>
+        <v>12176.24982266278</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.890315082629</v>
+        <v>12077.89031508263</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1271.813139769939</v>
+        <v>12071.81313976994</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1244.496623658024</v>
+        <v>12044.49662365802</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1234.327352276686</v>
+        <v>12034.32735227669</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1233.467836182129</v>
+        <v>12033.46783618213</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1230.531071413275</v>
+        <v>12030.53107141328</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1228.341892966386</v>
+        <v>12028.34189296639</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1216.037581761179</v>
+        <v>12016.03758176118</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1210.225573674294</v>
+        <v>12010.22557367429</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1204.868130393788</v>
+        <v>12004.86813039379</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1203.229379615473</v>
+        <v>12003.22937961547</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1194.748819295017</v>
+        <v>11994.74881929502</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1192.258245275334</v>
+        <v>11992.25824527533</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1183.651911226616</v>
+        <v>11983.65191122662</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.605339128595</v>
+        <v>11982.60533912859</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1176.279801661901</v>
+        <v>11976.2798016619</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1145.11049623546</v>
+        <v>11945.11049623546</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1143.988590686295</v>
+        <v>11943.98859068629</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1143.988590686295</v>
+        <v>11943.98859068629</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1140.220115271984</v>
+        <v>11940.22011527198</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1140</v>
+        <v>11940</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1139.327236294392</v>
+        <v>11939.32723629439</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1113.916530489799</v>
+        <v>11913.9165304898</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1113.066776939508</v>
+        <v>11913.06677693951</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1076.165195726573</v>
+        <v>11876.16519572657</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1006.281683299067</v>
+        <v>11806.28168329907</v>
       </c>
     </row>
   </sheetData>

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12191.62486743099</v>
+        <v>1391.624867430988</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12185.28708089559</v>
+        <v>1385.287080895593</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12176.24982266278</v>
+        <v>1376.249822662785</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12077.89031508263</v>
+        <v>1277.890315082629</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12071.81313976994</v>
+        <v>1271.813139769939</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12044.49662365802</v>
+        <v>1244.496623658024</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12034.32735227669</v>
+        <v>1234.327352276686</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12033.46783618213</v>
+        <v>1233.467836182129</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12030.53107141328</v>
+        <v>1230.531071413275</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12028.34189296639</v>
+        <v>1228.341892966386</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12016.03758176118</v>
+        <v>1216.037581761179</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12010.22557367429</v>
+        <v>1210.225573674294</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12004.86813039379</v>
+        <v>1204.868130393788</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12003.22937961547</v>
+        <v>1203.229379615473</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11994.74881929502</v>
+        <v>1194.748819295017</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11992.25824527533</v>
+        <v>1192.258245275334</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11983.65191122662</v>
+        <v>1183.651911226616</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11982.60533912859</v>
+        <v>1182.605339128595</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11976.2798016619</v>
+        <v>1176.279801661901</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11945.11049623546</v>
+        <v>1145.11049623546</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11943.98859068629</v>
+        <v>1143.988590686295</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11943.98859068629</v>
+        <v>1143.988590686295</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11940.22011527198</v>
+        <v>1140.220115271984</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11940</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11939.32723629439</v>
+        <v>1139.327236294392</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11913.9165304898</v>
+        <v>1113.916530489799</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11913.06677693951</v>
+        <v>1113.066776939508</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11876.16519572657</v>
+        <v>1076.165195726573</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11806.28168329907</v>
+        <v>1006.281683299067</v>
       </c>
     </row>
   </sheetData>

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Levin Lee</t>
+          <t>Aaron Carter</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1391.624867430988</v>
+        <v>1537.121990870036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aaron Carter</t>
+          <t>Will Simpson</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1385.287080895593</v>
+        <v>1396.331533632466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Roman Ramirez</t>
+          <t>Levin Lee</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1376.249822662785</v>
+        <v>1391.624867430988</v>
       </c>
     </row>
     <row r="5">
@@ -498,157 +498,157 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Will Simpson</t>
+          <t>Roman Ramirez</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1244.496623658024</v>
+        <v>1270.649156167338</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nathan Snow</t>
+          <t>Gabe Silverstein</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1234.327352276686</v>
+        <v>1233.467836182129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gabe Silverstein</t>
+          <t>Jack Massingill</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1233.467836182129</v>
+        <v>1228.341892966386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Coby Lovelace</t>
+          <t>Nathan Snow</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1230.531071413275</v>
+        <v>1219.740685506919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jack Massingill</t>
+          <t>Kristian Banlaoi</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1228.341892966386</v>
+        <v>1216.037581761179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kristian Banlaoi</t>
+          <t>Yvonne Nguyen</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1216.037581761179</v>
+        <v>1204.868130393788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ann Hall</t>
+          <t>Coby Lovelace</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1210.225573674294</v>
+        <v>1198.883494704046</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Yvonne Nguyen</t>
+          <t>Ann Hall</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1204.868130393788</v>
+        <v>1198.228992509007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Leah Baetcke</t>
+          <t>Piper Parker</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1203.229379615473</v>
+        <v>1194.748819295017</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Piper Parker</t>
+          <t>Carla Betancourt</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1194.748819295017</v>
+        <v>1192.258245275334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carla Betancourt</t>
+          <t>Cason Duszak</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1192.258245275334</v>
+        <v>1183.651911226616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cason Duszak</t>
+          <t>Reagan Fryatt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1183.651911226616</v>
+        <v>1182.605339128595</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Reagan Fryatt</t>
+          <t>Anna Brown</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.605339128595</v>
+        <v>1176.279801661901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Anna Brown</t>
+          <t>Rose Roché</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1176.279801661901</v>
+        <v>1145.11049623546</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rose Roché</t>
+          <t>Helen Dunn</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1145.11049623546</v>
+        <v>1143.988590686295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Helen Dunn</t>
+          <t>Noah Dale</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,71 +658,71 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Noah Dale</t>
+          <t>Jason Jackson</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1143.988590686295</v>
+        <v>1140.220115271984</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jason Jackson</t>
+          <t>Brian Tafazoli</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1140.220115271984</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brian Tafazoli</t>
+          <t>Matthew Rusten</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1140</v>
+        <v>1139.327236294392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Matthew Rusten</t>
+          <t>Leah Baetcke</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1139.327236294392</v>
+        <v>1138.692457411543</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cassie Deering</t>
+          <t>Evan Sooklal</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1113.916530489799</v>
+        <v>1113.066776939508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Evan Sooklal</t>
+          <t>Sam Carswell-Tellis</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1113.066776939508</v>
+        <v>1076.165195726573</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sam Carswell-Tellis</t>
+          <t>Cassie Deering</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1076.165195726573</v>
+        <v>1058.266119428515</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1006.281683299067</v>
+        <v>986.6306877551247</v>
       </c>
     </row>
   </sheetData>

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sam Carswell-Tellis</t>
+          <t>Sam Tellis</t>
         </is>
       </c>
       <c r="B28" t="n">

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.121990870036</v>
+        <v>1578.068408583175</v>
       </c>
     </row>
     <row r="3">
@@ -462,57 +462,57 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1396.331533632466</v>
+        <v>1389.845978659066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Levin Lee</t>
+          <t>Kevin Lee</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1391.624867430988</v>
+        <v>1385.601170521426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rohan Chowla</t>
+          <t>Roman Ramirez</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.890315082629</v>
+        <v>1354.964499748664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin Cooper</t>
+          <t>Rohan Chowla</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1271.813139769939</v>
+        <v>1303.641964193648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Roman Ramirez</t>
+          <t>Kevin Cooper</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1270.649156167338</v>
+        <v>1271.813139769939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gabe Silverstein</t>
+          <t>Bronte Sundstrom</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.467836182129</v>
+        <v>1244.912353653355</v>
       </c>
     </row>
     <row r="9">
@@ -558,31 +558,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Coby Lovelace</t>
+          <t>Gabe Silverstein</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1198.883494704046</v>
+        <v>1201.692490161548</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ann Hall</t>
+          <t>Piper Parker</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1198.228992509007</v>
+        <v>1194.748819295017</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Piper Parker</t>
+          <t>Parker Simpson</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1194.748819295017</v>
+        <v>1193.5144450266</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1183.651911226616</v>
+        <v>1189.056587063621</v>
       </c>
     </row>
     <row r="18">
@@ -618,121 +618,161 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anna Brown</t>
+          <t>Spencer Harris</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1176.279801661901</v>
+        <v>1179.730047956958</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rose Roché</t>
+          <t>Abby LeahFriend</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1145.11049623546</v>
+        <v>1178.180583312953</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Helen Dunn</t>
+          <t>Anna Brown</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1143.988590686295</v>
+        <v>1176.279801661901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Noah Dale</t>
+          <t>Leah Baetcke</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1143.988590686295</v>
+        <v>1167.526278792758</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jason Jackson</t>
+          <t>Coby Lovelace</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1140.220115271984</v>
+        <v>1160.048928653962</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brian Tafazoli</t>
+          <t>Rose Roché</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1140</v>
+        <v>1145.11049623546</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Matthew Rusten</t>
+          <t>Helen Dunn</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1139.327236294392</v>
+        <v>1143.988590686295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Leah Baetcke</t>
+          <t>Noah Dale</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1138.692457411543</v>
+        <v>1143.988590686295</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Evan Sooklal</t>
+          <t>Ann Hall</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1113.066776939508</v>
+        <v>1142.733815855265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sam Tellis</t>
+          <t>Jason Jackson</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1076.165195726573</v>
+        <v>1140.220115271984</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cassie Deering</t>
+          <t>Brian Tafazoli</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1058.266119428515</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Matthew Rusten</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1139.327236294392</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Evan Sooklal</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1113.066776939508</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cassie Deering</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1058.266119428515</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sam Tellis</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1040.370685155026</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Paul Bartenfeld</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>986.6306877551247</v>
+      <c r="B34" t="n">
+        <v>979.4502013604686</v>
       </c>
     </row>
   </sheetData>

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Abby LeahFriend</t>
+          <t>Abby Muller</t>
         </is>
       </c>
       <c r="B20" t="n">

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,181 +448,181 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aaron Carter</t>
+          <t>Kevin Lee</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1578.068408583175</v>
+        <v>1440.80888262806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Will Simpson</t>
+          <t>Aaron Carter</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1389.845978659066</v>
+        <v>1385.287080895593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kevin Lee</t>
+          <t>Roman Ramirez</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1385.601170521426</v>
+        <v>1376.249822662785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Roman Ramirez</t>
+          <t>Rohan Chowla</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1354.964499748664</v>
+        <v>1327.0743302797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rohan Chowla</t>
+          <t>Kevin Cooper</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1303.641964193648</v>
+        <v>1271.813139769939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kevin Cooper</t>
+          <t>Nathan Snow</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1271.813139769939</v>
+        <v>1269.690480942519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bronte Sundstrom</t>
+          <t>Eric LastName</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1244.912353653355</v>
+        <v>1252.042427448334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jack Massingill</t>
+          <t>Will Simpson</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1228.341892966386</v>
+        <v>1244.496623658024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nathan Snow</t>
+          <t>Cason Duszak</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1219.740685506919</v>
+        <v>1235.694338674949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kristian Banlaoi</t>
+          <t>Coby Lovelace</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1216.037581761179</v>
+        <v>1230.531071413275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Yvonne Nguyen</t>
+          <t>Jack Massingill</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1204.868130393788</v>
+        <v>1228.341892966386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gabe Silverstein</t>
+          <t>Kristian Banlaoi</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1201.692490161548</v>
+        <v>1216.037581761179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Piper Parker</t>
+          <t>Ann Hall</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.748819295017</v>
+        <v>1210.225573674294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Parker Simpson</t>
+          <t>Julie Jackson</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1193.5144450266</v>
+        <v>1206.9700132008</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Carla Betancourt</t>
+          <t>Carolyn LastName</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1192.258245275334</v>
+        <v>1206.9700132008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cason Duszak</t>
+          <t>Yvonne Nguyen</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1189.056587063621</v>
+        <v>1204.868130393788</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Reagan Fryatt</t>
+          <t>Leah Baetcke</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1182.605339128595</v>
+        <v>1203.229379615473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spencer Harris</t>
+          <t>Parker Simpson</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1179.730047956958</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="20">
@@ -632,147 +632,217 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1178.180583312953</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Anna Brown</t>
+          <t>Bronte Sundstrom</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1176.279801661901</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Leah Baetcke</t>
+          <t>Spencer Harris</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1167.526278792758</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Coby Lovelace</t>
+          <t>Gabe Silverstein</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1160.048928653962</v>
+        <v>1194.784861685014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rose Roché</t>
+          <t>Carla Betancourt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1145.11049623546</v>
+        <v>1192.258245275334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Helen Dunn</t>
+          <t>Luci Nguyen</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1143.988590686295</v>
+        <v>1192.016717335031</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Noah Dale</t>
+          <t>Yafu LastName</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1143.988590686295</v>
+        <v>1186.568385070699</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ann Hall</t>
+          <t>Reagan Fryatt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1142.733815855265</v>
+        <v>1182.605339128595</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jason Jackson</t>
+          <t>Anna Brown</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1140.220115271984</v>
+        <v>1176.279801661901</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brian Tafazoli</t>
+          <t>Jason Jackson</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1140</v>
+        <v>1175.583243937817</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Matthew Rusten</t>
+          <t>Alex LastName</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1139.327236294392</v>
+        <v>1161.317025502886</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Evan Sooklal</t>
+          <t>Rose Roché</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1113.066776939508</v>
+        <v>1145.11049623546</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cassie Deering</t>
+          <t>Helen Dunn</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1058.266119428515</v>
+        <v>1143.988590686295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sam Tellis</t>
+          <t>Brian Tafazoli</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1040.370685155026</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Matthew Rusten</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1131.343953629423</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Noah Dale</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1130.556975756994</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kim LastName</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1116.538287579346</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cassie Deering</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1113.916530489799</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Evan Sooklal</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1113.066776939508</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Piper Parker</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1111.287106874363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sam Tellis</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1076.165195726573</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Paul Bartenfeld</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>979.4502013604686</v>
+      <c r="B41" t="n">
+        <v>1006.281683299067</v>
       </c>
     </row>
   </sheetData>

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Julie Jackson</t>
+          <t>Carolyn LastName</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Carolyn LastName</t>
+          <t>Julie Jackson</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -618,230 +618,190 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Parker Simpson</t>
+          <t>Gabe Silverstein</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1200</v>
+        <v>1194.784861685014</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Abby Muller</t>
+          <t>Carla Betancourt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1200</v>
+        <v>1192.258245275334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bronte Sundstrom</t>
+          <t>Luci Nguyen</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1200</v>
+        <v>1192.016717335031</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spencer Harris</t>
+          <t>Yafu LastName</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1200</v>
+        <v>1186.568385070699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gabe Silverstein</t>
+          <t>Reagan Fryatt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.784861685014</v>
+        <v>1182.605339128595</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Carla Betancourt</t>
+          <t>Anna Brown</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1192.258245275334</v>
+        <v>1176.279801661901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Luci Nguyen</t>
+          <t>Jason Jackson</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1192.016717335031</v>
+        <v>1175.583243937817</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Yafu LastName</t>
+          <t>Alex LastName</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1186.568385070699</v>
+        <v>1161.317025502886</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Reagan Fryatt</t>
+          <t>Rose Roché</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1182.605339128595</v>
+        <v>1145.11049623546</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Anna Brown</t>
+          <t>Helen Dunn</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1176.279801661901</v>
+        <v>1143.988590686295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jason Jackson</t>
+          <t>Brian Tafazoli</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1175.583243937817</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alex LastName</t>
+          <t>Matthew Rusten</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1161.317025502886</v>
+        <v>1131.343953629423</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rose Roché</t>
+          <t>Noah Dale</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1145.11049623546</v>
+        <v>1130.556975756994</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Helen Dunn</t>
+          <t>Kim LastName</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1143.988590686295</v>
+        <v>1116.538287579346</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brian Tafazoli</t>
+          <t>Cassie Deering</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1140</v>
+        <v>1113.916530489799</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Matthew Rusten</t>
+          <t>Evan Sooklal</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1131.343953629423</v>
+        <v>1113.066776939508</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Noah Dale</t>
+          <t>Piper Parker</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1130.556975756994</v>
+        <v>1111.287106874363</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kim LastName</t>
+          <t>Sam Tellis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1116.538287579346</v>
+        <v>1076.165195726573</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cassie Deering</t>
+          <t>Paul Bartenfeld</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1113.916530489799</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Evan Sooklal</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1113.066776939508</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Piper Parker</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1111.287106874363</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Sam Tellis</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1076.165195726573</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Paul Bartenfeld</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
         <v>1006.281683299067</v>
       </c>
     </row>

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1440.80888262806</v>
+        <v>1478.475746292782</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1327.0743302797</v>
+        <v>1282.912864074036</v>
       </c>
     </row>
     <row r="6">
@@ -528,280 +528,300 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cason Duszak</t>
+          <t>Matthew Rusten</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1235.694338674949</v>
+        <v>1238.321915246371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Coby Lovelace</t>
+          <t>Cason Duszak</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1230.531071413275</v>
+        <v>1235.694338674949</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jack Massingill</t>
+          <t>Coby Lovelace</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1228.341892966386</v>
+        <v>1230.531071413275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kristian Banlaoi</t>
+          <t>Jack Massingill</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1216.037581761179</v>
+        <v>1228.341892966386</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ann Hall</t>
+          <t>Leah Baetcke</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1210.225573674294</v>
+        <v>1217.313674809931</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carolyn LastName</t>
+          <t>Kristian Banlaoi</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1206.9700132008</v>
+        <v>1216.037581761179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Julie Jackson</t>
+          <t>Ann Hall</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1206.9700132008</v>
+        <v>1210.225573674294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Yvonne Nguyen</t>
+          <t>Julie Jackson</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1204.868130393788</v>
+        <v>1206.9700132008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Leah Baetcke</t>
+          <t>Carolyn LastName</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1203.229379615473</v>
+        <v>1206.9700132008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gabe Silverstein</t>
+          <t>Autumn Hong</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1194.784861685014</v>
+        <v>1205.373824345477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carla Betancourt</t>
+          <t>Yvonne Nguyen</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.258245275334</v>
+        <v>1204.868130393788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Luci Nguyen</t>
+          <t>Matthew Werfel</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1192.016717335031</v>
+        <v>1193.216907739866</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Yafu LastName</t>
+          <t>Carla Betancourt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1186.568385070699</v>
+        <v>1192.258245275334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Reagan Fryatt</t>
+          <t>Yafu LastName</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1182.605339128595</v>
+        <v>1186.568385070699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Anna Brown</t>
+          <t>Gabe Silverstein</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1176.279801661901</v>
+        <v>1183.913802299198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jason Jackson</t>
+          <t>Anna Brown</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1175.583243937817</v>
+        <v>1176.279801661901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Alex LastName</t>
+          <t>Jason Jackson</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1161.317025502886</v>
+        <v>1175.583243937817</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Rose Roché</t>
+          <t>Alex LastName</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1145.11049623546</v>
+        <v>1161.317025502886</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Helen Dunn</t>
+          <t>Reagan Fryatt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1143.988590686295</v>
+        <v>1156.627719501922</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brian Tafazoli</t>
+          <t>Luci Nguyen</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1140</v>
+        <v>1152.980935470569</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Matthew Rusten</t>
+          <t>Rose Roché</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1131.343953629423</v>
+        <v>1145.11049623546</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Noah Dale</t>
+          <t>Helen Dunn</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1130.556975756994</v>
+        <v>1143.988590686295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kim LastName</t>
+          <t>Brian Tafazoli</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1116.538287579346</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cassie Deering</t>
+          <t>Kim LastName</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1113.916530489799</v>
+        <v>1116.538287579346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Evan Sooklal</t>
+          <t>Cassie Deering</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1113.066776939508</v>
+        <v>1113.916530489799</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Piper Parker</t>
+          <t>Evan Sooklal</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1111.287106874363</v>
+        <v>1113.066776939508</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sam Tellis</t>
+          <t>Piper Parker</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1076.165195726573</v>
+        <v>1111.287106874363</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Noah Dale</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1093.283050278138</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sam Tellis</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1076.165195726573</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Paul Bartenfeld</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>1006.281683299067</v>
       </c>
     </row>

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>player</t>
   </si>
@@ -37,24 +37,36 @@
     <t>Kevin Cooper</t>
   </si>
   <si>
+    <t>Autumn Hong</t>
+  </si>
+  <si>
     <t>Nathan Snow</t>
   </si>
   <si>
+    <t>Milen Satish</t>
+  </si>
+  <si>
     <t>Will Simpson</t>
   </si>
   <si>
     <t>Luke Woods</t>
   </si>
   <si>
-    <t>Milen Satish</t>
-  </si>
-  <si>
     <t>Matthew Rusten</t>
   </si>
   <si>
+    <t>Eric Edwards</t>
+  </si>
+  <si>
+    <t>Matthew Werfel</t>
+  </si>
+  <si>
     <t>Coby Lovelace</t>
   </si>
   <si>
+    <t>Matthew Kish</t>
+  </si>
+  <si>
     <t>Jack Massingill</t>
   </si>
   <si>
@@ -64,75 +76,66 @@
     <t>Kristian Banlaoi</t>
   </si>
   <si>
-    <t>Eric Edwards</t>
+    <t>Bryce Taylor</t>
   </si>
   <si>
     <t>Ann Hall</t>
   </si>
   <si>
-    <t>Matthew Kish</t>
+    <t>Carolyn LastName</t>
+  </si>
+  <si>
+    <t>Yvonne Nguyen</t>
   </si>
   <si>
     <t>Connor Rogers</t>
   </si>
   <si>
-    <t>Carolyn LastName</t>
+    <t>Gabe Silverstein</t>
+  </si>
+  <si>
+    <t>Cason Duszak</t>
+  </si>
+  <si>
+    <t>Carla Betancourt</t>
+  </si>
+  <si>
+    <t>Yafu LastName</t>
+  </si>
+  <si>
+    <t>Anna Brown</t>
+  </si>
+  <si>
+    <t>Jason Jackson</t>
+  </si>
+  <si>
+    <t>Ronan McKinney</t>
+  </si>
+  <si>
+    <t>Charles Myersberg</t>
+  </si>
+  <si>
+    <t>Rasmi Tangirala</t>
+  </si>
+  <si>
+    <t>Alex LastName</t>
+  </si>
+  <si>
+    <t>Reagan Fryatt</t>
+  </si>
+  <si>
+    <t>Rose Roché</t>
+  </si>
+  <si>
+    <t>Helen Dunn</t>
+  </si>
+  <si>
+    <t>Brian Tafazoli</t>
   </si>
   <si>
     <t>Julie Jackson</t>
   </si>
   <si>
-    <t>Autumn Hong</t>
-  </si>
-  <si>
-    <t>Yvonne Nguyen</t>
-  </si>
-  <si>
-    <t>Cason Duszak</t>
-  </si>
-  <si>
-    <t>Matthew Werfel</t>
-  </si>
-  <si>
-    <t>Carla Betancourt</t>
-  </si>
-  <si>
-    <t>Yafu LastName</t>
-  </si>
-  <si>
-    <t>Anna Brown</t>
-  </si>
-  <si>
-    <t>Jason Jackson</t>
-  </si>
-  <si>
-    <t>Charles M</t>
-  </si>
-  <si>
-    <t>Alexis LastName</t>
-  </si>
-  <si>
-    <t>Rasmi Tangirala</t>
-  </si>
-  <si>
-    <t>Alex LastName</t>
-  </si>
-  <si>
-    <t>Gabe Silverstein</t>
-  </si>
-  <si>
-    <t>Reagan Fryatt</t>
-  </si>
-  <si>
-    <t>Rose Roché</t>
-  </si>
-  <si>
-    <t>Helen Dunn</t>
-  </si>
-  <si>
-    <t>Brian Tafazoli</t>
-  </si>
-  <si>
     <t>Luci Nguyen</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>Piper Parker</t>
+  </si>
+  <si>
+    <t>Alexis Alms</t>
   </si>
   <si>
     <t>Sam Tellis</t>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1548.244894723716</v>
+        <v>1570.85786689829</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -555,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1352.682012504971</v>
+        <v>1339.190088530342</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -571,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1269.690480942519</v>
+        <v>1271.679315638947</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1244.496623658024</v>
+        <v>1269.690480942519</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1241.167212605164</v>
+        <v>1244.837542175923</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1241.167212605164</v>
+        <v>1244.496623658024</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1238.321915246371</v>
+        <v>1241.167212605164</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1230.531071413275</v>
+        <v>1238.321915246371</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1228.341892966386</v>
+        <v>1233.939056772713</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1217.313674809931</v>
+        <v>1231.251932343357</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1216.037581761179</v>
+        <v>1230.531071413275</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1215.383466741357</v>
+        <v>1229.087578650443</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1210.225573674294</v>
+        <v>1228.341892966386</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1207.211481542908</v>
+        <v>1217.313674809931</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1207.211481542908</v>
+        <v>1216.037581761179</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1206.9700132008</v>
+        <v>1211.683485439216</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1206.9700132008</v>
+        <v>1210.225573674294</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1205.373824345477</v>
+        <v>1206.9700132008</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -707,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1199.035377967972</v>
+        <v>1201.753292915542</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1193.216907739866</v>
+        <v>1201.13829799492</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1192.258245275334</v>
+        <v>1199.035377967972</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1186.568385070699</v>
+        <v>1192.258245275334</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1176.279801661901</v>
+        <v>1186.568385070699</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1175.583243937817</v>
+        <v>1176.279801661901</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1171.207281708672</v>
+        <v>1175.583243937817</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1171.207281708672</v>
+        <v>1172.998834244298</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1170.960307443729</v>
+        <v>1171.207281708672</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1161.317025502886</v>
+        <v>1170.960307443729</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1160.257331274767</v>
+        <v>1161.317025502886</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -827,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1123.941242914298</v>
+        <v>1136.545344957142</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1116.538287579346</v>
+        <v>1123.941242914298</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1113.916530489799</v>
+        <v>1116.538287579346</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1113.066776939508</v>
+        <v>1113.916530489799</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +865,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1111.287106874363</v>
+        <v>1113.066776939508</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1076.165195726573</v>
+        <v>1111.287106874363</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +881,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1069.626579253707</v>
+        <v>1100.714612978582</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,6 +889,22 @@
         <v>46</v>
       </c>
       <c r="B46">
+        <v>1076.165195726573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>1032.875237644598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
         <v>1006.281683299067</v>
       </c>
     </row>

--- a/exports/player_elo_table.xlsx
+++ b/exports/player_elo_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>player</t>
   </si>
@@ -58,12 +58,12 @@
     <t>Eric Edwards</t>
   </si>
   <si>
+    <t>Coby Lovelace</t>
+  </si>
+  <si>
     <t>Matthew Werfel</t>
   </si>
   <si>
-    <t>Coby Lovelace</t>
-  </si>
-  <si>
     <t>Matthew Kish</t>
   </si>
   <si>
@@ -161,6 +161,135 @@
   </si>
   <si>
     <t>Paul Bartenfeld</t>
+  </si>
+  <si>
+    <t>1571</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>1241</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>1171</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
 </sst>
 </file>
@@ -536,376 +665,376 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1570.85786689829</v>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1385.287080895593</v>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1376.249822662785</v>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1339.190088530342</v>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1271.813139769939</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1271.679315638947</v>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1269.690480942519</v>
+      <c r="B8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1244.837542175923</v>
+      <c r="B9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1244.496623658024</v>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1241.167212605164</v>
+      <c r="B11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1238.321915246371</v>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1233.939056772713</v>
+      <c r="B13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1231.251932343357</v>
+      <c r="B14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1230.531071413275</v>
+      <c r="B15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>1229.087578650443</v>
+      <c r="B16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1228.341892966386</v>
+      <c r="B17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>1217.313674809931</v>
+      <c r="B18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>1216.037581761179</v>
+      <c r="B19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>1211.683485439216</v>
+      <c r="B20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>1210.225573674294</v>
+      <c r="B21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>1206.9700132008</v>
+      <c r="B22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>1204.868130393788</v>
+      <c r="B23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>1201.753292915542</v>
+      <c r="B24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1201.13829799492</v>
+      <c r="B25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>1199.035377967972</v>
+      <c r="B26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>1192.258245275334</v>
+      <c r="B27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>1186.568385070699</v>
+      <c r="B28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>1176.279801661901</v>
+      <c r="B29" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>1175.583243937817</v>
+      <c r="B30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>1172.998834244298</v>
+      <c r="B31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>1171.207281708672</v>
+      <c r="B32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>1170.960307443729</v>
+      <c r="B33" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>1161.317025502886</v>
+      <c r="B34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>1156.627719501922</v>
+      <c r="B35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>1145.11049623546</v>
+      <c r="B36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>1143.988590686295</v>
+      <c r="B37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>1140</v>
+      <c r="B38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>1136.545344957142</v>
+      <c r="B39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>1123.941242914298</v>
+      <c r="B40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>1116.538287579346</v>
+      <c r="B41" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>1113.916530489799</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>1113.066776939508</v>
+      <c r="B43" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>1111.287106874363</v>
+      <c r="B44" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>1100.714612978582</v>
+      <c r="B45" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>1076.165195726573</v>
+      <c r="B46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>1032.875237644598</v>
+      <c r="B47" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>1006.281683299067</v>
+      <c r="B48" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
